--- a/pandas/pivot_table.xlsx
+++ b/pandas/pivot_table.xlsx
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.178914859688712</v>
+        <v>1.108536911663782</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4210267772653088</v>
+        <v>-0.9452133341847544</v>
       </c>
     </row>
     <row r="3">
@@ -435,10 +435,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3624989722584049</v>
+        <v>-1.2479462299996</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2270142617200558</v>
+        <v>-0.7491614127844856</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.081948892752271</v>
+        <v>0.6491405591560656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6229704284768023</v>
+        <v>1.408185617755351</v>
       </c>
     </row>
     <row r="5">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.008161858543785852</v>
+        <v>-1.837248819982231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5039711911985358</v>
+        <v>0.5869295390094683</v>
       </c>
     </row>
     <row r="6">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.08528654864834713</v>
+        <v>0.2616894716598598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8380945135416472</v>
+        <v>0.2669167232185621</v>
       </c>
     </row>
     <row r="7">
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3894471363626968</v>
+        <v>-0.6953106516384278</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6932950327610783</v>
+        <v>0.1853668684367971</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.869497556049321</v>
+        <v>-0.5016979951615131</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02511905044348817</v>
+        <v>0.7140496794384295</v>
       </c>
     </row>
     <row r="9">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4825437096281308</v>
+        <v>-0.8538683016290477</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1542330133154445</v>
+        <v>-0.08014764929943675</v>
       </c>
     </row>
   </sheetData>
